--- a/results/gurobi_cplex_comparison/seed_50_k_40.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_40.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>1.137</v>
       </c>
       <c r="F2">
-        <v>0.039</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.065</v>
+        <v>1.6</v>
       </c>
       <c r="F3">
-        <v>0.067</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.017</v>
+        <v>2.121</v>
       </c>
       <c r="F4">
-        <v>0.037</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.021</v>
+        <v>2.838</v>
       </c>
       <c r="F5">
-        <v>0.048</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.066</v>
+        <v>3.541</v>
       </c>
       <c r="F6">
-        <v>0.06900000000000001</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.091</v>
+        <v>4.443</v>
       </c>
       <c r="F7">
-        <v>0.097</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.041</v>
+        <v>5.271</v>
       </c>
       <c r="F8">
-        <v>0.066</v>
+        <v>1.119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.074</v>
+        <v>6.349</v>
       </c>
       <c r="F9">
-        <v>0.238</v>
+        <v>1.467</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.107</v>
+        <v>7.476</v>
       </c>
       <c r="F10">
-        <v>0.141</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.034</v>
+        <v>8.565</v>
       </c>
       <c r="F11">
-        <v>0.07000000000000001</v>
+        <v>1.715</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.244</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>6.984</v>
+        <v>86.712</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>11.354</v>
       </c>
       <c r="F13">
-        <v>13.131</v>
+        <v>44.164</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.183</v>
+        <v>12.728</v>
       </c>
       <c r="F14">
-        <v>118.416</v>
+        <v>105.459</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07099999999999999</v>
+        <v>14.175</v>
       </c>
       <c r="F15">
-        <v>20.818</v>
+        <v>104.16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.281</v>
+        <v>16.071</v>
       </c>
       <c r="F16">
-        <v>16.982</v>
+        <v>117.561</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.542</v>
+        <v>18.045</v>
       </c>
       <c r="F17">
-        <v>30.391</v>
+        <v>90.273</v>
       </c>
     </row>
   </sheetData>
